--- a/data/trans_camb/P0902-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P0902-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>11.49638438747812</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>18.16112620364966</v>
+        <v>18.16112620364967</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>10.34629432789782</v>
@@ -664,7 +664,7 @@
         <v>8.805030927835919</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>15.27996054462276</v>
+        <v>15.27996054462275</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.25359333918717</v>
+        <v>4.113750164095858</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.227563282887745</v>
+        <v>1.098526349078206</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.17431345912297</v>
+        <v>6.460460059316158</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8.334319503957598</v>
+        <v>8.204878447902034</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.743703026019803</v>
+        <v>7.707329098907671</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>14.8472889134428</v>
+        <v>14.67991717468762</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.736630907334111</v>
+        <v>7.610384220434383</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.17773411777288</v>
+        <v>5.735238888839049</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>12.4986491072026</v>
+        <v>12.702544606506</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.27167086599573</v>
+        <v>11.43504533884117</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.626010618490769</v>
+        <v>8.540160373101228</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.88069961169334</v>
+        <v>14.8109779812241</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.3453078481978</v>
+        <v>15.46031358197622</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>15.67020078913247</v>
+        <v>15.37655520756594</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>22.05148238754386</v>
+        <v>21.58978361805481</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.04611403837387</v>
+        <v>12.74093963831601</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>11.57253019180494</v>
+        <v>11.31960612998057</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.6525132434472</v>
+        <v>17.93059114930529</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.4901069298357975</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.774234185812894</v>
+        <v>0.7742341858128943</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.5182338125150175</v>
@@ -769,7 +769,7 @@
         <v>0.4410337269007679</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.7653553975134024</v>
+        <v>0.7653553975134022</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2441852341133935</v>
+        <v>0.2321559817165318</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.08140432773249981</v>
+        <v>0.06134922671365468</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.426495608424907</v>
+        <v>0.3729422004782381</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3257187341676435</v>
+        <v>0.3240307196446425</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3129112973445866</v>
+        <v>0.3132326396729842</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5901416878432485</v>
+        <v>0.5827946884808899</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3585435251445983</v>
+        <v>0.3584325919593236</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2877871876226606</v>
+        <v>0.2804440430315261</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.58246085607349</v>
+        <v>0.6009073304954428</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8014540136830277</v>
+        <v>0.8011372071404584</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6197369479666283</v>
+        <v>0.5984859328662094</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.049807843843873</v>
+        <v>1.049092879406291</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7207684907440635</v>
+        <v>0.7046345829635341</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7175701791177274</v>
+        <v>0.7024654405922766</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.028564579150685</v>
+        <v>0.9999404382918005</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6909791361620545</v>
+        <v>0.6823286155729164</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6047477447233548</v>
+        <v>0.6050722918721103</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9400318253618639</v>
+        <v>0.9546215699862892</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>1.818911201957674</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>5.543708811225026</v>
+        <v>5.543708811225024</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.278210130412861</v>
+        <v>-0.320184736754075</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2529608620622855</v>
+        <v>-0.2298907863400683</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.931378780215768</v>
+        <v>3.855599109122601</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.0670398816043369</v>
+        <v>-0.1200717195546998</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2640650587290351</v>
+        <v>0.276108039574081</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.430676374636708</v>
+        <v>3.587002296531009</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2827128435813333</v>
+        <v>0.2159364447870048</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4561206123151978</v>
+        <v>0.6510929388716705</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.161257227084826</v>
+        <v>4.23383518775975</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.639222642237521</v>
+        <v>2.741590714840199</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.745918939486574</v>
+        <v>2.815376373456213</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.263346450434419</v>
+        <v>7.338185734383416</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.21437116249909</v>
+        <v>4.126050037977866</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.520530147795733</v>
+        <v>4.384473235481566</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.372731097394213</v>
+        <v>7.399138901330201</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.81990889108999</v>
+        <v>2.802873289417617</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.171152056752072</v>
+        <v>3.1777348061641</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.749468920681669</v>
+        <v>6.776551606004391</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.2591594737244054</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.7898706965200487</v>
+        <v>0.7898706965200484</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.04729567002260161</v>
+        <v>-0.05895016526224382</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.04870977566519787</v>
+        <v>-0.04093956899537518</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.6397381752142721</v>
+        <v>0.6494613368373497</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.00837921228671595</v>
+        <v>-0.01446433395741845</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02070323652843736</v>
+        <v>0.02171945069232243</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3229529650044634</v>
+        <v>0.3556340421571443</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0416286295756365</v>
+        <v>0.02383409323652117</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.06040247993344441</v>
+        <v>0.08477887930128311</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.5313667411716103</v>
+        <v>0.5387646903491797</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6442495851370028</v>
+        <v>0.626505539710306</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6291233948332747</v>
+        <v>0.6724960909346697</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.674599676156555</v>
+        <v>1.758236201219887</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5243557340680438</v>
+        <v>0.4968032836517756</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5490905465416168</v>
+        <v>0.5415543522265829</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8987575494624215</v>
+        <v>0.9229779100899811</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4602962177046012</v>
+        <v>0.4334771569016078</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4995732370271505</v>
+        <v>0.5065278296522274</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.045352252388597</v>
+        <v>1.064755770824265</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.7016866211764082</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.212939574181754</v>
+        <v>3.212939574181752</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.6390739895919859</v>
@@ -1083,7 +1083,7 @@
         <v>0.6936955595689187</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.575546525687867</v>
+        <v>1.575546525687865</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.6233714931970848</v>
@@ -1092,7 +1092,7 @@
         <v>0.8497680191500434</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.561617379746655</v>
+        <v>2.561617379746654</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.064788795474042</v>
+        <v>-1.14422805186866</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.916885839774386</v>
+        <v>-1.901525302479504</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5924436455729429</v>
+        <v>0.5831962858918011</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.044574758258816</v>
+        <v>-4.543248038077358</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.961957194229867</v>
+        <v>-2.688259287608293</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.960252488158369</v>
+        <v>-1.584688708553189</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.960031838042239</v>
+        <v>-1.627636345510783</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.513952908097237</v>
+        <v>-1.298392485894979</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2276385492199501</v>
+        <v>0.5193264704314045</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.911068884095656</v>
+        <v>4.818532769196187</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.377112886239863</v>
+        <v>3.467628659292</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.056965650362552</v>
+        <v>6.083866314368609</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.017740277170975</v>
+        <v>2.746784478374048</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.523373641332257</v>
+        <v>4.603915147884925</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.566272339020768</v>
+        <v>4.454543828952027</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.966738788465883</v>
+        <v>3.31162793807886</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.947265835592505</v>
+        <v>3.315984399912237</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.616786621087</v>
+        <v>4.509178419706302</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1678297580563942</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.7684724991345858</v>
+        <v>0.7684724991345855</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.07760178234100716</v>
@@ -1188,7 +1188,7 @@
         <v>0.0842343964882051</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1913162177553488</v>
+        <v>0.1913162177553486</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1028630921074469</v>
@@ -1197,7 +1197,7 @@
         <v>0.1402209869679719</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.422694793317426</v>
+        <v>0.4226947933174258</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2205279776943365</v>
+        <v>-0.2415002956556356</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.365976683663446</v>
+        <v>-0.3594884009359512</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.0638901974591926</v>
+        <v>0.07422588720980552</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4131063115415854</v>
+        <v>-0.4643253735698588</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2967847392230404</v>
+        <v>-0.2791367587033489</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1808138291861665</v>
+        <v>-0.1681392233071473</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2714358332086086</v>
+        <v>-0.2278719720293813</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2154245580675041</v>
+        <v>-0.1931991443724171</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.03300814215855172</v>
+        <v>0.06385946176742807</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.694470141627448</v>
+        <v>1.704892380278939</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.163801987587228</v>
+        <v>1.147573584446937</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.077828244405468</v>
+        <v>2.048244582095796</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4658865646994024</v>
+        <v>0.4231028726737325</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6986222603221721</v>
+        <v>0.7512073168949269</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7224535171111284</v>
+        <v>0.7599111089920775</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5861436716214605</v>
+        <v>0.6681754134645339</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5778973412379255</v>
+        <v>0.651031248013174</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9721393535818805</v>
+        <v>0.9397848138111553</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.103295246878251</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.349991908477797</v>
+        <v>4.349991908477794</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>5.306364512446088</v>
@@ -1306,7 +1306,7 @@
         <v>2.14163387937161</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.722309335589067</v>
+        <v>4.72230933558907</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.366984732655865</v>
+        <v>1.36766703634269</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.210731447747425</v>
+        <v>-0.2219664229865957</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.926705739014946</v>
+        <v>3.07728433424114</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.682033337803614</v>
+        <v>3.496279637681482</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.25646351874199</v>
+        <v>1.319919927919716</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.44985484076978</v>
+        <v>3.333315569557363</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.837901626917408</v>
+        <v>2.914779340345839</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9227290088202238</v>
+        <v>0.9878128883305307</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.733895688518714</v>
+        <v>3.354335970250752</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.321546349299068</v>
+        <v>4.253409571208906</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.504560210023855</v>
+        <v>2.512692637281499</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.781453342953831</v>
+        <v>5.837948167364696</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.155840018966784</v>
+        <v>7.026510482166026</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.829166788023931</v>
+        <v>4.900118137494768</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.864088908917027</v>
+        <v>6.581478764740321</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.305686439467608</v>
+        <v>5.306057697333036</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.18544422763236</v>
+        <v>3.326421107391227</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.807382554968471</v>
+        <v>5.704604890131792</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1351711554473127</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.5329429580333268</v>
+        <v>0.5329429580333265</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3632253983357139</v>
@@ -1411,7 +1411,7 @@
         <v>0.1872822635450389</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4129579710368085</v>
+        <v>0.4129579710368088</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1577051608629816</v>
+        <v>0.1551030827181347</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02412649774957529</v>
+        <v>-0.02804109369276367</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.320828382556883</v>
+        <v>0.3511720449998648</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2368874146831537</v>
+        <v>0.2218031548293798</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.08017586900398957</v>
+        <v>0.08333717939207268</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2236269670486981</v>
+        <v>0.2113247927028412</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2323418363807299</v>
+        <v>0.2397029248626423</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.07756112794241542</v>
+        <v>0.08280412338671576</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3109730112616047</v>
+        <v>0.279927769071753</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5891983728950878</v>
+        <v>0.5591057947895364</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3424245827134536</v>
+        <v>0.3310571429551074</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7750726115065838</v>
+        <v>0.7915167887362322</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5197011014896054</v>
+        <v>0.5088227884369294</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3459163563225973</v>
+        <v>0.352940750122736</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5028815766588867</v>
+        <v>0.480773306175571</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4843521041336913</v>
+        <v>0.4876638740554325</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2898429898877792</v>
+        <v>0.3089884790668295</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.530329343871358</v>
+        <v>0.5251004301268424</v>
       </c>
     </row>
     <row r="28">
